--- a/Ke-hoach-thuc-hien-Do-An .xlsx
+++ b/Ke-hoach-thuc-hien-Do-An .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Máy tính\HTML\DoAnCNTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9817236-EE2B-46E4-B6EE-A002A4ECCFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B481CF-AEDF-44D4-B8F3-465F077AA167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kế Hoạch" sheetId="2" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -157,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -510,33 +508,7 @@
       <left style="dashed">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
       <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thick">
@@ -567,7 +539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -627,15 +599,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -660,16 +626,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -720,7 +677,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -729,6 +686,18 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -743,18 +712,6 @@
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1015,18 +972,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thick">
+      <border outline="0">
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
+      <border>
+        <bottom style="thick">
           <color auto="1"/>
         </bottom>
       </border>
@@ -1071,7 +1028,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A7:J28" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A7:J28" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="A7:J28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT" dataDxfId="9"/>
@@ -1085,7 +1042,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu (thực tế)" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ngày kết thúc (thực tế)" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1354,117 +1311,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="9" customWidth="1"/>
     <col min="2" max="2" width="30.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="58.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="24" customWidth="1"/>
     <col min="5" max="5" width="25.875" style="11" customWidth="1"/>
     <col min="6" max="6" width="33.125" style="11" hidden="1" customWidth="1"/>
     <col min="7" max="10" width="25.875" style="11" customWidth="1"/>
     <col min="11" max="26" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="39" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:26" s="34" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
-    </row>
-    <row r="2" spans="1:26" s="39" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
+    </row>
+    <row r="2" spans="1:26" s="34" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="59"/>
-    </row>
-    <row r="3" spans="1:26" s="39" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+    </row>
+    <row r="3" spans="1:26" s="34" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57"/>
-    </row>
-    <row r="4" spans="1:26" s="39" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="40" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+    </row>
+    <row r="4" spans="1:26" s="34" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="49">
         <v>19110067</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-    </row>
-    <row r="5" spans="1:26" s="39" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="41" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" spans="1:26" s="34" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="49">
         <v>19110007</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
-    </row>
-    <row r="6" spans="1:26" s="39" customFormat="1" ht="28.35" customHeight="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-    </row>
-    <row r="7" spans="1:26" s="3" customFormat="1" ht="25.35" customHeight="1">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:26" s="34" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:26" s="3" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1496,33 +1453,35 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="28">
+    <row r="8" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="30" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="13"/>
-      <c r="G8" s="51">
+      <c r="G8" s="46">
         <v>44442</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="46">
         <v>44445</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="47">
         <v>44442</v>
       </c>
-      <c r="J8" s="34"/>
+      <c r="J8" s="46">
+        <v>44445</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1540,57 +1499,65 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="52" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="61">
+      <c r="G9" s="51">
         <v>44446</v>
       </c>
-      <c r="H9" s="61">
+      <c r="H9" s="51">
         <v>44449</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="33"/>
-    </row>
-    <row r="10" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I9" s="51">
+        <v>44446</v>
+      </c>
+      <c r="J9" s="51">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="52" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="61">
+      <c r="G10" s="51">
         <v>44450</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="51">
         <v>44457</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="30"/>
+      <c r="I10" s="51">
+        <v>44450</v>
+      </c>
+      <c r="J10" s="51">
+        <v>44455</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1608,31 +1575,35 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>4</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="25">
         <v>44458</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="25">
         <v>44465</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="32"/>
+      <c r="I11" s="25">
+        <v>44456</v>
+      </c>
+      <c r="J11" s="25">
+        <v>44465</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1650,62 +1621,68 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="60"/>
+      <c r="E12" s="50"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="61">
+      <c r="G12" s="51">
         <v>44466</v>
       </c>
-      <c r="H12" s="61">
+      <c r="H12" s="51">
         <v>44479</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="I12" s="51">
+        <v>44466</v>
+      </c>
+      <c r="J12" s="51">
+        <v>44479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="62"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="61">
+      <c r="G13" s="51">
         <v>44480</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="51">
         <v>44494</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="51">
+        <v>44480</v>
+      </c>
       <c r="J13" s="19"/>
     </row>
-    <row r="14" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>7</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="39" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -1717,10 +1694,10 @@
       <c r="F14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="25">
         <v>44495</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="25">
         <v>44520</v>
       </c>
       <c r="I14" s="13"/>
@@ -1742,25 +1719,25 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>8</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="13"/>
-      <c r="G15" s="27">
+      <c r="G15" s="25">
         <v>44521</v>
       </c>
-      <c r="H15" s="27">
+      <c r="H15" s="25">
         <v>44527</v>
       </c>
       <c r="I15" s="13"/>
@@ -1782,23 +1759,23 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>9</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="13"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="13"/>
       <c r="J16" s="19"/>
       <c r="K16" s="2"/>
@@ -1818,17 +1795,17 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>10</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="22"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="13"/>
       <c r="J17" s="19"/>
       <c r="K17" s="2"/>
@@ -1848,17 +1825,17 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>11</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="21"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="13"/>
       <c r="J18" s="19"/>
       <c r="K18" s="2"/>
@@ -1878,32 +1855,32 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>12</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="21"/>
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="13"/>
       <c r="J19" s="19"/>
     </row>
-    <row r="20" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>13</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="22"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="19"/>
@@ -1924,18 +1901,18 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>14</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="22"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="19"/>
@@ -1956,18 +1933,18 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>15</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="24"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="14"/>
       <c r="F22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="19"/>
@@ -1988,13 +1965,13 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>16</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="22"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13" t="s">
         <v>36</v>
@@ -2020,13 +1997,13 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>17</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="24"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
         <v>36</v>
@@ -2052,13 +2029,13 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" s="8" customFormat="1" ht="19.7" customHeight="1">
+    <row r="25" spans="1:26" s="8" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>18</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="24"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="14"/>
       <c r="F25" s="13" t="s">
         <v>36</v>
@@ -2084,19 +2061,19 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="28">
+    <row r="26" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="26">
         <v>19</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="29"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="30"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="28"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -2114,19 +2091,19 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="28">
+    <row r="27" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="26">
         <v>20</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="29"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="30"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="28"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2144,13 +2121,13 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="25"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
